--- a/doc/02.基本設計書.xlsx
+++ b/doc/02.基本設計書.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">データ設計!$A$1:$AM$148</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">画面設計!$A$1:$AM$160</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面設計!$A$1:$AE$160</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">機能設計!$A$1:$AM$132</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AX$76</definedName>
   </definedNames>
@@ -5274,7 +5274,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="81" max="38" man="1"/>
+    <brk id="81" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
